--- a/tests/data/expected/Res_BadVillageName.xlsx
+++ b/tests/data/expected/Res_BadVillageName.xlsx
@@ -1,53 +1,108 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\linelist-aggregation-epimap\tests\data\expected\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="11">
+  <si>
+    <t>CODE_LOCATION</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Week</t>
+  </si>
+  <si>
+    <t>Num of cases</t>
+  </si>
+  <si>
+    <t>VILL_000</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>VILL_001</t>
+  </si>
+  <si>
+    <t>VILL_002</t>
+  </si>
+  <si>
+    <t>VILL_003</t>
+  </si>
+  <si>
+    <t>Num of cases where malaria RTD was positive</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D0CECE"/>
+        <fgColor rgb="FFD0CECE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C6E0B4"/>
+        <fgColor rgb="FFC6E0B4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -57,16 +112,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -74,17 +144,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -372,304 +455,242 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="21.71" customWidth="1" min="1" max="1"/>
-    <col width="8.43" customWidth="1" min="2" max="2"/>
-    <col width="14.57" customWidth="1" min="3" max="3"/>
-    <col width="9" customWidth="1" min="4" max="4"/>
-    <col width="26.57" customWidth="1" min="5" max="5"/>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" customWidth="1"/>
+    <col min="6" max="6" width="43" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>CODE_LOCATION</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Year</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Month</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Week</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>Num of cases</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>VILL_000</t>
-        </is>
-      </c>
-      <c r="B2" s="3" t="n">
-        <v>2019</v>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>January</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>VILL_000</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="n">
-        <v>2019</v>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>January</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="n">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="4" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>VILL_000</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="n">
-        <v>2019</v>
-      </c>
-      <c r="C4" s="3" t="inlineStr">
-        <is>
-          <t>January</t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="n">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>VILL_001</t>
-        </is>
-      </c>
-      <c r="B5" s="3" t="n">
-        <v>2019</v>
-      </c>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>January</t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>VILL_001</t>
-        </is>
-      </c>
-      <c r="B6" s="3" t="n">
-        <v>2019</v>
-      </c>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>January</t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="n">
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3">
+        <v>2019</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2019</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3">
         <v>2</v>
       </c>
-      <c r="E6" s="4" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>VILL_001</t>
-        </is>
-      </c>
-      <c r="B7" s="3" t="n">
-        <v>2019</v>
-      </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>January</t>
-        </is>
-      </c>
-      <c r="D7" s="3" t="n">
+      <c r="E3" s="4"/>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2019</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3">
         <v>3</v>
       </c>
-      <c r="E7" s="4" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>VILL_002</t>
-        </is>
-      </c>
-      <c r="B8" s="3" t="n">
-        <v>2019</v>
-      </c>
-      <c r="C8" s="3" t="inlineStr">
-        <is>
-          <t>January</t>
-        </is>
-      </c>
-      <c r="D8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>VILL_002</t>
-        </is>
-      </c>
-      <c r="B9" s="3" t="n">
-        <v>2019</v>
-      </c>
-      <c r="C9" s="3" t="inlineStr">
-        <is>
-          <t>January</t>
-        </is>
-      </c>
-      <c r="D9" s="3" t="n">
+      <c r="E4" s="4"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2019</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3">
+        <v>2019</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="3">
         <v>2</v>
       </c>
-      <c r="E9" s="4" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>VILL_002</t>
-        </is>
-      </c>
-      <c r="B10" s="3" t="n">
-        <v>2019</v>
-      </c>
-      <c r="C10" s="3" t="inlineStr">
-        <is>
-          <t>January</t>
-        </is>
-      </c>
-      <c r="D10" s="3" t="n">
+      <c r="E6" s="4"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3">
+        <v>2019</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3">
         <v>3</v>
       </c>
-      <c r="E10" s="4" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>VILL_003</t>
-        </is>
-      </c>
-      <c r="B11" s="3" t="n">
-        <v>2019</v>
-      </c>
-      <c r="C11" s="3" t="inlineStr">
-        <is>
-          <t>January</t>
-        </is>
-      </c>
-      <c r="D11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>VILL_003</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="n">
-        <v>2019</v>
-      </c>
-      <c r="C12" s="3" t="inlineStr">
-        <is>
-          <t>January</t>
-        </is>
-      </c>
-      <c r="D12" s="3" t="n">
+      <c r="E7" s="4"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3">
+        <v>2019</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>2019</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3">
         <v>2</v>
       </c>
-      <c r="E12" s="4" t="n">
+      <c r="E9" s="4"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3">
+        <v>2019</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="3">
+        <v>3</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3">
+        <v>2019</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2019</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>VILL_003</t>
-        </is>
-      </c>
-      <c r="B13" s="3" t="n">
-        <v>2019</v>
-      </c>
-      <c r="C13" s="3" t="inlineStr">
-        <is>
-          <t>January</t>
-        </is>
-      </c>
-      <c r="D13" s="3" t="n">
+      <c r="E12" s="4">
+        <v>2</v>
+      </c>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="3">
+        <v>2019</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="3">
         <v>3</v>
       </c>
-      <c r="E13" s="4" t="n">
-        <v/>
-      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
